--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +990,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -956,19 +1010,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -985,19 +1045,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1106,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1056,19 +1130,25 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1176,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1105,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1114,19 +1200,25 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1281,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1192,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1201,19 +1305,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1230,19 +1340,25 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1526,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1404,19 +1550,25 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1596,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1462,53 +1620,65 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1705,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1736,14 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1876,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1911,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,37 +1981,49 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,16 +2156,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2256,14 @@
       <c r="K57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,45 +2291,57 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -2081,8 +2361,14 @@
       <c r="K60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,16 +2536,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,16 +2726,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="E72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="F72" s="3">
         <v>-15300</v>
@@ -2402,19 +2750,25 @@
         <v>-15300</v>
       </c>
       <c r="H72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-14800</v>
       </c>
       <c r="K72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,16 +2866,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2936,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2601,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2610,19 +3000,25 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,16 +3030,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3271,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3616,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3651,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3684,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,11 +1028,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1016,19 +1043,22 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,11 +1066,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1051,19 +1081,22 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1146,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,11 +1158,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
@@ -1136,19 +1173,22 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,8 +1222,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1191,11 +1234,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1206,19 +1249,22 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1336,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1296,11 +1348,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1311,19 +1363,22 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,11 +1386,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1346,19 +1401,22 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,8 +1602,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,11 +1614,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1556,19 +1629,22 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1678,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1611,11 +1690,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1626,59 +1705,65 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1793,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1998,8 +2109,8 @@
       <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2013,8 +2124,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2285,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2174,7 +2300,7 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,13 +2357,14 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -2262,31 +2393,34 @@
       <c r="M57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,13 +2431,16 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2312,7 +2449,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2323,8 +2460,8 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -2332,8 +2469,11 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2344,7 +2484,7 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2697,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2554,7 +2712,7 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +2903,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2744,7 +2918,7 @@
         <v>-17100</v>
       </c>
       <c r="F72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="G72" s="3">
         <v>-15300</v>
@@ -2756,10 +2930,10 @@
         <v>-15300</v>
       </c>
       <c r="J72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-14800</v>
       </c>
       <c r="L72" s="3">
         <v>-14800</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3055,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2884,7 +3070,7 @@
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3131,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2991,11 +3186,11 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3006,19 +3201,22 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,19 +3230,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3906,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,31 +963,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -968,13 +1007,19 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,26 +1070,28 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1046,19 +1099,25 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,14 +1128,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1084,19 +1143,25 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1161,14 +1234,14 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
@@ -1176,19 +1249,25 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,26 +1304,32 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1252,19 +1337,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,26 +1436,32 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1366,37 +1469,43 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1404,19 +1513,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,26 +1744,32 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1632,19 +1777,25 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,26 +1832,32 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1708,62 +1865,74 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1965,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,31 +2137,37 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,16 +2269,22 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,11 +2333,11 @@
       <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2127,17 +2348,23 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2533,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2303,10 +2554,10 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2367,10 +2628,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -2396,19 +2657,25 @@
       <c r="N57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2422,11 +2689,11 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2434,28 +2701,34 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2463,22 +2736,28 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -2487,10 +2766,10 @@
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,13 +3009,19 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -2715,10 +3030,10 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,13 +3247,19 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="E72" s="3">
         <v>-17100</v>
@@ -2921,10 +3268,10 @@
         <v>-17100</v>
       </c>
       <c r="G72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="H72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="I72" s="3">
         <v>-15300</v>
@@ -2933,19 +3280,25 @@
         <v>-15300</v>
       </c>
       <c r="K72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-14800</v>
       </c>
       <c r="N72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,8 +3423,14 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3073,10 +3444,10 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,69 +3511,81 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3204,19 +3593,25 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,25 +3626,27 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1015,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1013,16 +1033,19 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,17 +1098,18 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1090,11 +1117,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1105,19 +1132,22 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1134,11 +1164,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1149,19 +1179,22 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,29 +1256,32 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -1255,19 +1292,22 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,17 +1350,20 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1328,11 +1371,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1343,19 +1386,22 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,17 +1491,20 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1460,11 +1512,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1475,28 +1527,31 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1504,11 +1559,11 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1519,19 +1574,22 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,17 +1820,20 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -1768,11 +1841,11 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1783,19 +1856,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,17 +1914,20 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -1856,11 +1935,11 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1871,68 +1950,74 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,16 +2239,19 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2169,8 +2268,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,19 +2380,22 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2339,8 +2450,8 @@
       <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2354,8 +2465,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2560,7 +2686,7 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,7 +2765,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,8 +2811,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2695,8 +2829,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2707,22 +2841,25 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2731,7 +2868,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2742,8 +2879,8 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -2751,16 +2888,19 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -2772,7 +2912,7 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,16 +3170,19 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -3036,7 +3194,7 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,7 +3436,7 @@
         <v>-18700</v>
       </c>
       <c r="E72" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="F72" s="3">
         <v>-17100</v>
@@ -3274,7 +3448,7 @@
         <v>-17100</v>
       </c>
       <c r="I72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="J72" s="3">
         <v>-15300</v>
@@ -3286,10 +3460,10 @@
         <v>-15300</v>
       </c>
       <c r="M72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-14800</v>
       </c>
       <c r="O72" s="3">
         <v>-14800</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3612,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3450,7 +3636,7 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,66 +3706,72 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -3584,11 +3779,11 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3599,19 +3794,22 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,28 +3826,29 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,8 +1038,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1047,8 +1070,8 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,11 +1135,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1120,11 +1147,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1135,19 +1162,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,11 +1185,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1167,11 +1197,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1182,19 +1212,22 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,21 +1307,21 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
@@ -1295,19 +1332,22 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,11 +1405,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1374,11 +1417,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1389,19 +1432,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,11 +1555,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1515,11 +1567,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1530,19 +1582,22 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,11 +1605,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1562,11 +1617,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1577,19 +1632,22 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,11 +1905,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1844,11 +1917,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1859,19 +1932,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,11 +2005,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1938,11 +2017,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1953,71 +2032,77 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,8 +2352,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2271,8 +2370,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,19 +2488,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2453,8 +2564,8 @@
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2468,8 +2579,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2689,7 +2815,7 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2768,7 +2899,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2814,8 +2948,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2832,8 +2966,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,16 +2990,16 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2871,7 +3008,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2882,8 +3019,8 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,10 +3040,10 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -2915,7 +3055,7 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,10 +3340,10 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -3197,7 +3355,7 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3439,7 +3613,7 @@
         <v>-18700</v>
       </c>
       <c r="F72" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="G72" s="3">
         <v>-17100</v>
@@ -3451,7 +3625,7 @@
         <v>-17100</v>
       </c>
       <c r="J72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="K72" s="3">
         <v>-15300</v>
@@ -3463,10 +3637,10 @@
         <v>-15300</v>
       </c>
       <c r="N72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-14800</v>
       </c>
       <c r="P72" s="3">
         <v>-14800</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3639,7 +3825,7 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,11 +3965,11 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3782,11 +3977,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3797,19 +3992,22 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3838,20 +4037,20 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,8 +1060,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1095,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1138,11 +1164,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1150,11 +1176,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1165,19 +1191,22 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,11 +1217,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1200,11 +1229,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1215,19 +1244,22 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,21 +1346,21 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
@@ -1335,19 +1371,22 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1408,11 +1450,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1420,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1435,19 +1477,22 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1558,11 +1609,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1570,11 +1621,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1585,19 +1636,22 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1608,11 +1662,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1620,11 +1674,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1635,19 +1689,22 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1908,11 +1980,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1920,11 +1992,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1935,19 +2007,22 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2008,11 +2086,11 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2020,11 +2098,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2035,74 +2113,80 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2355,8 +2453,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2373,8 +2471,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2391,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,13 +2648,16 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -2567,8 +2677,8 @@
       <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>200</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2582,8 +2692,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,13 +2913,16 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -2818,7 +2943,7 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2902,7 +3032,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2951,8 +3084,8 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2969,8 +3102,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,28 +3114,31 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3011,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3022,8 +3158,8 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3167,11 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3043,10 +3182,10 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -3058,7 +3197,7 @@
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3343,10 +3500,10 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -3358,7 +3515,7 @@
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3616,7 +3789,7 @@
         <v>-18700</v>
       </c>
       <c r="G72" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="H72" s="3">
         <v>-17100</v>
@@ -3628,7 +3801,7 @@
         <v>-17100</v>
       </c>
       <c r="K72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="L72" s="3">
         <v>-15300</v>
@@ -3640,10 +3813,10 @@
         <v>-15300</v>
       </c>
       <c r="O72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-14800</v>
       </c>
       <c r="Q72" s="3">
         <v>-14800</v>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,13 +3983,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>4100</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -3828,7 +4013,7 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3968,11 +4162,11 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3980,11 +4174,11 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3995,19 +4189,22 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,19 +4223,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4046,14 +4244,14 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1121,8 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1167,11 +1194,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1179,11 +1206,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1194,19 +1221,22 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1220,11 +1250,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1232,11 +1262,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1247,19 +1277,22 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1349,21 +1386,21 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1374,19 +1411,22 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,11 +1496,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1465,11 +1508,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1480,19 +1523,22 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1612,11 +1664,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1624,11 +1676,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1639,19 +1691,22 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1665,11 +1720,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1677,11 +1732,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1692,19 +1747,22 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1983,11 +2056,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1995,11 +2068,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2010,19 +2083,22 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2089,11 +2168,11 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2101,11 +2180,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2116,77 +2195,83 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2456,8 +2555,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,7 +2771,7 @@
         <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2680,8 +2791,8 @@
       <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>200</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,7 +3051,7 @@
         <v>4400</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -2946,7 +3072,7 @@
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3035,7 +3166,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3087,8 +3221,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3105,8 +3239,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,22 +3263,22 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3150,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3161,8 +3298,8 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3185,10 +3325,10 @@
         <v>400</v>
       </c>
       <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -3200,7 +3340,7 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3503,10 +3661,10 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -3518,7 +3676,7 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3792,7 +3966,7 @@
         <v>-18700</v>
       </c>
       <c r="H72" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="I72" s="3">
         <v>-17100</v>
@@ -3804,7 +3978,7 @@
         <v>-17100</v>
       </c>
       <c r="L72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="M72" s="3">
         <v>-15300</v>
@@ -3816,10 +3990,10 @@
         <v>-15300</v>
       </c>
       <c r="P72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-14800</v>
       </c>
       <c r="R72" s="3">
         <v>-14800</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,16 +4169,19 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-200</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
@@ -4016,7 +4202,7 @@
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4165,11 +4360,11 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4177,11 +4372,11 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4192,19 +4387,22 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4250,11 +4449,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1106,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,8 +1147,8 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,13 +1205,14 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1197,11 +1224,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1209,11 +1236,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1224,19 +1251,22 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1253,11 +1283,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1265,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1280,19 +1310,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1389,21 +1426,21 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
@@ -1414,19 +1451,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,13 +1521,16 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1499,11 +1542,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1511,11 +1554,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1526,19 +1569,22 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1698,16 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1667,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1679,11 +1731,11 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1694,24 +1746,27 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1723,11 +1778,11 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1735,11 +1790,11 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1750,19 +1805,22 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,13 +2111,16 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2059,11 +2132,11 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2071,11 +2144,11 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2086,19 +2159,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2229,16 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2171,11 +2250,11 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2183,11 +2262,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2198,80 +2277,86 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2558,8 +2657,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2576,8 +2675,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,7 +2885,7 @@
         <v>4400</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2794,8 +2905,8 @@
       <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>200</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -2809,8 +2920,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,7 +3180,7 @@
         <v>4400</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -3075,7 +3201,7 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3169,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3198,13 +3329,16 @@
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3224,8 +3358,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3242,8 +3376,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3266,22 +3403,22 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3290,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3301,8 +3438,8 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3328,10 +3468,10 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -3343,7 +3483,7 @@
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3664,10 +3822,10 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -3679,7 +3837,7 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,13 +4119,16 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="E72" s="3">
         <v>-18700</v>
@@ -3969,7 +4143,7 @@
         <v>-18700</v>
       </c>
       <c r="I72" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="J72" s="3">
         <v>-17100</v>
@@ -3981,7 +4155,7 @@
         <v>-17100</v>
       </c>
       <c r="M72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="N72" s="3">
         <v>-15300</v>
@@ -3993,10 +4167,10 @@
         <v>-15300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-14800</v>
       </c>
       <c r="S72" s="3">
         <v>-14800</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4355,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,10 +4367,10 @@
         <v>4000</v>
       </c>
       <c r="E76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
@@ -4205,7 +4391,7 @@
         <v>-200</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4473,80 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4363,11 +4558,11 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -4375,11 +4570,11 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4390,19 +4585,22 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4452,11 +4651,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>CLTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1129,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,8 +1173,8 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,17 +1232,18 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1227,11 +1254,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1239,11 +1266,11 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1254,19 +1281,22 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1286,11 +1316,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1298,11 +1328,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1313,19 +1343,22 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,21 +1466,21 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
@@ -1454,19 +1491,22 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,17 +1564,20 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1545,11 +1588,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1557,11 +1600,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1572,19 +1615,22 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,17 +1750,20 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1722,11 +1774,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1734,11 +1786,11 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1749,28 +1801,31 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1781,11 +1836,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1793,11 +1848,11 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1808,19 +1863,22 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,17 +2184,20 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -2135,11 +2208,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2147,11 +2220,11 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2162,19 +2235,22 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,17 +2308,20 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -2253,11 +2332,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2265,11 +2344,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2280,83 +2359,89 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2660,8 +2759,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2678,8 +2777,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2888,7 +2999,7 @@
         <v>4400</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2908,8 +3019,8 @@
       <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>200</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -2923,8 +3034,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3183,7 +3309,7 @@
         <v>4400</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
@@ -3204,7 +3330,7 @@
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3303,7 +3434,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,7 +3475,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3361,8 +3495,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3379,8 +3513,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3406,22 +3543,22 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3430,7 +3567,7 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3441,8 +3578,8 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3471,10 +3611,10 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
@@ -3486,7 +3626,7 @@
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3825,10 +3983,10 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -3840,7 +3998,7 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4131,7 +4305,7 @@
         <v>-19100</v>
       </c>
       <c r="E72" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="F72" s="3">
         <v>-18700</v>
@@ -4146,7 +4320,7 @@
         <v>-18700</v>
       </c>
       <c r="J72" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="K72" s="3">
         <v>-17100</v>
@@ -4158,7 +4332,7 @@
         <v>-17100</v>
       </c>
       <c r="N72" s="3">
-        <v>-15300</v>
+        <v>-17100</v>
       </c>
       <c r="O72" s="3">
         <v>-15300</v>
@@ -4170,10 +4344,10 @@
         <v>-15300</v>
       </c>
       <c r="R72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-14800</v>
       </c>
       <c r="T72" s="3">
         <v>-14800</v>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3">
         <v>-14800</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4370,10 +4556,10 @@
         <v>4000</v>
       </c>
       <c r="F76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G76" s="3">
         <v>4100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -4394,7 +4580,7 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,81 +4665,87 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -4561,11 +4756,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -4573,11 +4768,11 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4588,19 +4783,22 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4654,11 +4853,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
